--- a/Code/Results/Cases/Case_3_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.540874247895943</v>
+        <v>0.4849909108651786</v>
       </c>
       <c r="C2">
-        <v>0.3939035719346293</v>
+        <v>0.1390367536166366</v>
       </c>
       <c r="D2">
-        <v>0.04078977178312471</v>
+        <v>0.01388781897824742</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4706003693833125</v>
+        <v>0.4548297057558699</v>
       </c>
       <c r="G2">
-        <v>0.000774557153064237</v>
+        <v>0.002376288671846065</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1782014457121832</v>
+        <v>0.3201922625708562</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.811660724302271</v>
+        <v>0.8950069012951758</v>
       </c>
       <c r="N2">
-        <v>0.4792280577974815</v>
+        <v>0.9088538593433313</v>
       </c>
       <c r="O2">
-        <v>1.25695575190602</v>
+        <v>1.432740183228361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.347500955603607</v>
+        <v>0.4235675016159064</v>
       </c>
       <c r="C3">
-        <v>0.349545479954628</v>
+        <v>0.1243917632931186</v>
       </c>
       <c r="D3">
-        <v>0.03597044602108213</v>
+        <v>0.0122904808623332</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4239502183687733</v>
+        <v>0.446652616678854</v>
       </c>
       <c r="G3">
-        <v>0.000778346915409777</v>
+        <v>0.002378783334122204</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1733662639770834</v>
+        <v>0.3223965144529828</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.395396566100274</v>
+        <v>0.7963853923832573</v>
       </c>
       <c r="N3">
-        <v>0.5112141898683404</v>
+        <v>0.9210814647999364</v>
       </c>
       <c r="O3">
-        <v>1.1485070740965</v>
+        <v>1.418427280022513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.228481178065351</v>
+        <v>0.3857360183631329</v>
       </c>
       <c r="C4">
-        <v>0.3221948028530903</v>
+        <v>0.1153398086294999</v>
       </c>
       <c r="D4">
-        <v>0.03299994088968816</v>
+        <v>0.01130419820463402</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.396229079817175</v>
+        <v>0.441978754326982</v>
       </c>
       <c r="G4">
-        <v>0.0007807455700615866</v>
+        <v>0.002380397232916552</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1709854094172805</v>
+        <v>0.323991918952057</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.148354851797222</v>
+        <v>0.73634678032316</v>
       </c>
       <c r="N4">
-        <v>0.5317954438095498</v>
+        <v>0.9290192930965944</v>
       </c>
       <c r="O4">
-        <v>1.084825814535094</v>
+        <v>1.410746336141926</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.179903310913517</v>
+        <v>0.3702911067308605</v>
       </c>
       <c r="C5">
-        <v>0.3110202855737896</v>
+        <v>0.1116362770502519</v>
       </c>
       <c r="D5">
-        <v>0.03178654006259052</v>
+        <v>0.01090092363537565</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3851460922346632</v>
+        <v>0.44016120513934</v>
       </c>
       <c r="G5">
-        <v>0.0007817416248656239</v>
+        <v>0.002381075635677651</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1701537522493801</v>
+        <v>0.324702764161767</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.049468055614739</v>
+        <v>0.7120042915382783</v>
       </c>
       <c r="N5">
-        <v>0.5404124445603351</v>
+        <v>0.9323621219573575</v>
       </c>
       <c r="O5">
-        <v>1.059550805972805</v>
+        <v>1.407894133364493</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.171832262060917</v>
+        <v>0.3677248188329258</v>
       </c>
       <c r="C6">
-        <v>0.309163015004529</v>
+        <v>0.1110204232792711</v>
       </c>
       <c r="D6">
-        <v>0.03158487997254866</v>
+        <v>0.01083387914005129</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3833181590810213</v>
+        <v>0.4398646581627901</v>
       </c>
       <c r="G6">
-        <v>0.0007819081565953483</v>
+        <v>0.002381189537442518</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1700237653610372</v>
+        <v>0.3248244616809615</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.033146073771064</v>
+        <v>0.7079695435168389</v>
       </c>
       <c r="N6">
-        <v>0.5418569884539757</v>
+        <v>0.9329237241476882</v>
       </c>
       <c r="O6">
-        <v>1.055393169689381</v>
+        <v>1.407437291461093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.227826354492464</v>
+        <v>0.3855278357625025</v>
       </c>
       <c r="C7">
-        <v>0.322044216622146</v>
+        <v>0.1152899210241856</v>
       </c>
       <c r="D7">
-        <v>0.0329835883073244</v>
+        <v>0.01129876495581073</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3960787692267189</v>
+        <v>0.4419538898007644</v>
       </c>
       <c r="G7">
-        <v>0.0007807589272525121</v>
+        <v>0.002380406298180452</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1709736441835865</v>
+        <v>0.3240012600603563</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.147014448281396</v>
+        <v>0.7360179956710482</v>
       </c>
       <c r="N7">
-        <v>0.5319107332772326</v>
+        <v>0.9290639380208496</v>
       </c>
       <c r="O7">
-        <v>1.084482281729493</v>
+        <v>1.410706746131268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.474256516941239</v>
+        <v>0.4638371650086981</v>
       </c>
       <c r="C8">
-        <v>0.3786327030801999</v>
+        <v>0.1339997442496212</v>
       </c>
       <c r="D8">
-        <v>0.03913042631192809</v>
+        <v>0.01333821764798415</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4543125703043174</v>
+        <v>0.4519381550351653</v>
       </c>
       <c r="G8">
-        <v>0.0007758493221809735</v>
+        <v>0.002377131816653277</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1764064442950186</v>
+        <v>0.3209019774475657</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.666122681514139</v>
+        <v>0.8608916449777979</v>
       </c>
       <c r="N8">
-        <v>0.4900572355489068</v>
+        <v>0.912980663935862</v>
       </c>
       <c r="O8">
-        <v>1.218924868698878</v>
+        <v>1.427574929379489</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.955398178423707</v>
+        <v>0.6164249692042176</v>
       </c>
       <c r="C9">
-        <v>0.4886870066569031</v>
+        <v>0.1702043889849278</v>
       </c>
       <c r="D9">
-        <v>0.05109451771338769</v>
+        <v>0.01729274212684118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5767252232326712</v>
+        <v>0.4742780422288675</v>
       </c>
       <c r="G9">
-        <v>0.0007667629018095495</v>
+        <v>0.00237135957428936</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1921816931687914</v>
+        <v>0.3167510665232705</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.771720444900794</v>
+        <v>1.11013826240783</v>
       </c>
       <c r="N9">
-        <v>0.4157759958935117</v>
+        <v>0.8848548814462553</v>
       </c>
       <c r="O9">
-        <v>1.508346697424372</v>
+        <v>1.469469044063914</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.30781185983335</v>
+        <v>0.7278843016820247</v>
       </c>
       <c r="C10">
-        <v>0.5689494975400464</v>
+        <v>0.1964967278833001</v>
       </c>
       <c r="D10">
-        <v>0.05982939982981605</v>
+        <v>0.02016956157279282</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6730512479460629</v>
+        <v>0.4923881525519676</v>
       </c>
       <c r="G10">
-        <v>0.0007603723164613635</v>
+        <v>0.002367510230535948</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2075972208931525</v>
+        <v>0.314885654073958</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.672155383516866</v>
+        <v>1.296335015977732</v>
       </c>
       <c r="N10">
-        <v>0.366419829672779</v>
+        <v>0.8662734458529044</v>
       </c>
       <c r="O10">
-        <v>1.740883004378105</v>
+        <v>1.505670680128276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.467908808158143</v>
+        <v>0.7784392349846598</v>
       </c>
       <c r="C11">
-        <v>0.6053101283542617</v>
+        <v>0.2083887982885813</v>
       </c>
       <c r="D11">
-        <v>0.06379006998054848</v>
+        <v>0.0214718494548265</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.718609437032228</v>
+        <v>0.5009985520055409</v>
       </c>
       <c r="G11">
-        <v>0.0007575147975964339</v>
+        <v>0.002365843198813322</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2156209687305513</v>
+        <v>0.3142962896339832</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.111560878573911</v>
+        <v>1.381800810346746</v>
       </c>
       <c r="N11">
-        <v>0.3452079238632493</v>
+        <v>0.8582729303225918</v>
       </c>
       <c r="O11">
-        <v>1.852054261206519</v>
+        <v>1.523327744402053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.528497650656846</v>
+        <v>0.7975606165870204</v>
       </c>
       <c r="C12">
-        <v>0.6190531970277107</v>
+        <v>0.212881925682467</v>
       </c>
       <c r="D12">
-        <v>0.0652877920990278</v>
+        <v>0.02196404588302414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.736144637846607</v>
+        <v>0.5043127836764256</v>
       </c>
       <c r="G12">
-        <v>0.0007564386039640151</v>
+        <v>0.00236522395746524</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.21882227976538</v>
+        <v>0.3141105561585285</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.283446471978266</v>
+        <v>1.414281721414</v>
       </c>
       <c r="N12">
-        <v>0.3373633310517192</v>
+        <v>0.8553084482594571</v>
       </c>
       <c r="O12">
-        <v>1.895029249665299</v>
+        <v>1.530185701732194</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.515450513345343</v>
+        <v>0.793443514455987</v>
       </c>
       <c r="C13">
-        <v>0.6160946227880117</v>
+        <v>0.2119147061217745</v>
       </c>
       <c r="D13">
-        <v>0.06496532952641587</v>
+        <v>0.02185808542375867</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7323549391268358</v>
+        <v>0.5035966154167539</v>
       </c>
       <c r="G13">
-        <v>0.0007566701424350221</v>
+        <v>0.002365356788201202</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2181252685275297</v>
+        <v>0.3141488890428477</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.246160465275963</v>
+        <v>1.407281064679594</v>
       </c>
       <c r="N13">
-        <v>0.3390442952695096</v>
+        <v>0.8559440037040034</v>
       </c>
       <c r="O13">
-        <v>1.885733038778994</v>
+        <v>1.528701074847987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.472894265031528</v>
+        <v>0.7800128245672227</v>
       </c>
       <c r="C14">
-        <v>0.6064413295173097</v>
+        <v>0.2087586555500138</v>
       </c>
       <c r="D14">
-        <v>0.06391333241316488</v>
+        <v>0.021512362011741</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7200461837788623</v>
+        <v>0.5012701394675219</v>
       </c>
       <c r="G14">
-        <v>0.0007574261486239678</v>
+        <v>0.002365792012625151</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2158809683495626</v>
+        <v>0.3142802577767725</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.125583748939846</v>
+        <v>1.38447065139502</v>
       </c>
       <c r="N14">
-        <v>0.3445587238965793</v>
+        <v>0.8580277344940086</v>
       </c>
       <c r="O14">
-        <v>1.855571630399169</v>
+        <v>1.523888509521839</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.446822359791952</v>
+        <v>0.7717831470480405</v>
       </c>
       <c r="C15">
-        <v>0.6005248753546937</v>
+        <v>0.2068241538308371</v>
       </c>
       <c r="D15">
-        <v>0.06326867104924361</v>
+        <v>0.02130047152762415</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7125446751919071</v>
+        <v>0.4998520987974047</v>
       </c>
       <c r="G15">
-        <v>0.0007578899494006095</v>
+        <v>0.002366060165041674</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2145280465836592</v>
+        <v>0.3143656065663478</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.052484117128699</v>
+        <v>1.370514045698854</v>
       </c>
       <c r="N15">
-        <v>0.347961224707781</v>
+        <v>0.8593125660229646</v>
       </c>
       <c r="O15">
-        <v>1.837214358733235</v>
+        <v>1.520963042876218</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.297344436183209</v>
+        <v>0.7245773169998984</v>
       </c>
       <c r="C16">
-        <v>0.566569889830248</v>
+        <v>0.1957181502399408</v>
       </c>
       <c r="D16">
-        <v>0.05957028345236637</v>
+        <v>0.02008432259288639</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6701116462648713</v>
+        <v>0.4918329427316337</v>
       </c>
       <c r="G16">
-        <v>0.0007605599593337541</v>
+        <v>0.002367620860976023</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2070946348588301</v>
+        <v>0.3149294011673689</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.644134392824625</v>
+        <v>1.2907655935891</v>
       </c>
       <c r="N16">
-        <v>0.3678318490298338</v>
+        <v>0.8668054079338106</v>
       </c>
       <c r="O16">
-        <v>1.733734537809028</v>
+        <v>1.504540727416014</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.205586563608165</v>
+        <v>0.6955790988325816</v>
       </c>
       <c r="C17">
-        <v>0.5456984975799912</v>
+        <v>0.1888872333220775</v>
       </c>
       <c r="D17">
-        <v>0.0572980077080274</v>
+        <v>0.0193365943545345</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6445480418704506</v>
+        <v>0.4870088503103744</v>
       </c>
       <c r="G17">
-        <v>0.000762209817097874</v>
+        <v>0.002368599783290924</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.202805131111063</v>
+        <v>0.3153417846627384</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.402014335205848</v>
+        <v>1.242043103577814</v>
       </c>
       <c r="N17">
-        <v>0.38034626019736</v>
+        <v>0.8715179332349905</v>
       </c>
       <c r="O17">
-        <v>1.671701546125888</v>
+        <v>1.494771113534796</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.15278988228917</v>
+        <v>0.6788861945111648</v>
       </c>
       <c r="C18">
-        <v>0.5336799373179417</v>
+        <v>0.1849518459756894</v>
       </c>
       <c r="D18">
-        <v>0.05598986399579076</v>
+        <v>0.01890592118078871</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6300059916104885</v>
+        <v>0.4842691663727408</v>
       </c>
       <c r="G18">
-        <v>0.0007631635264946714</v>
+        <v>0.002369170748556487</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.200431917471299</v>
+        <v>0.3156033656411203</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.265468837755719</v>
+        <v>1.21409069316411</v>
       </c>
       <c r="N18">
-        <v>0.3876603888195866</v>
+        <v>0.8742710166644763</v>
       </c>
       <c r="O18">
-        <v>1.636522245238439</v>
+        <v>1.489263741626644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.134910483709689</v>
+        <v>0.6732319175969792</v>
       </c>
       <c r="C19">
-        <v>0.5296083709276616</v>
+        <v>0.1836182971152027</v>
       </c>
       <c r="D19">
-        <v>0.05554675004831466</v>
+        <v>0.01876000064437733</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.62510909218922</v>
+        <v>0.4833475638403399</v>
       </c>
       <c r="G19">
-        <v>0.0007634872866637111</v>
+        <v>0.002369365429076638</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1996440390779917</v>
+        <v>0.3156961160975769</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.219671737853332</v>
+        <v>1.204638552763598</v>
       </c>
       <c r="N19">
-        <v>0.3901564923395462</v>
+        <v>0.8752104706749648</v>
       </c>
       <c r="O19">
-        <v>1.624694207979559</v>
+        <v>1.48741823038992</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.215356435680576</v>
+        <v>0.698667456455496</v>
       </c>
       <c r="C20">
-        <v>0.5479217543025641</v>
+        <v>0.189615063177115</v>
       </c>
       <c r="D20">
-        <v>0.05754001997439673</v>
+        <v>0.01941625360096566</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6472523942143766</v>
+        <v>0.487518758961258</v>
       </c>
       <c r="G20">
-        <v>0.0007620337030127116</v>
+        <v>0.002368494756774654</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2032519092459708</v>
+        <v>0.315295360345619</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.427499689973587</v>
+        <v>1.247222247957168</v>
       </c>
       <c r="N20">
-        <v>0.3790019881234805</v>
+        <v>0.8710118709820662</v>
       </c>
       <c r="O20">
-        <v>1.678252577492572</v>
+        <v>1.49579952455997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.485395119833356</v>
+        <v>0.7839583696763839</v>
       </c>
       <c r="C21">
-        <v>0.6092774825899028</v>
+        <v>0.2096859417323458</v>
       </c>
       <c r="D21">
-        <v>0.06422238902993627</v>
+        <v>0.02161393544827206</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7236535868205181</v>
+        <v>0.5019520242153845</v>
       </c>
       <c r="G21">
-        <v>0.0007572039427587643</v>
+        <v>0.00236566385071591</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2165356003956909</v>
+        <v>0.3142406539593594</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.160839598964444</v>
+        <v>1.391167394124111</v>
       </c>
       <c r="N21">
-        <v>0.3429338267404027</v>
+        <v>0.8574139235291653</v>
       </c>
       <c r="O21">
-        <v>1.864406085209737</v>
+        <v>1.525297413830856</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.661662416019055</v>
+        <v>0.839568134043077</v>
       </c>
       <c r="C22">
-        <v>0.6492223374295918</v>
+        <v>0.2227441691662477</v>
       </c>
       <c r="D22">
-        <v>0.0685772530768034</v>
+        <v>0.02304468501012025</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7752565191108545</v>
+        <v>0.5116978466661521</v>
       </c>
       <c r="G22">
-        <v>0.0007540809362248657</v>
+        <v>0.002363883766685651</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2261768835113784</v>
+        <v>0.3137696860725221</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.672978801832301</v>
+        <v>1.485928457245251</v>
       </c>
       <c r="N22">
-        <v>0.3204608110210891</v>
+        <v>0.8489066139371459</v>
       </c>
       <c r="O22">
-        <v>1.991237720646495</v>
+        <v>1.54557657672882</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.567608345822578</v>
+        <v>0.8099007426288267</v>
       </c>
       <c r="C23">
-        <v>0.6279191349016173</v>
+        <v>0.2157802679108443</v>
       </c>
       <c r="D23">
-        <v>0.06625423895161475</v>
+        <v>0.02228158680446768</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7475499675253019</v>
+        <v>0.5064676378249118</v>
       </c>
       <c r="G23">
-        <v>0.0007557451628658746</v>
+        <v>0.002364827438759948</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2209368394504168</v>
+        <v>0.3140010155811588</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.396134608546546</v>
+        <v>1.435287690455937</v>
       </c>
       <c r="N23">
-        <v>0.3323513147013806</v>
+        <v>0.8534123437238819</v>
       </c>
       <c r="O23">
-        <v>1.923034592830362</v>
+        <v>1.534661430953605</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.210939612816617</v>
+        <v>0.6972712766619793</v>
       </c>
       <c r="C24">
-        <v>0.5469166798276319</v>
+        <v>0.1892860368243987</v>
       </c>
       <c r="D24">
-        <v>0.05743061176289643</v>
+        <v>0.01938024212746825</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6460292767822722</v>
+        <v>0.4872881241455502</v>
       </c>
       <c r="G24">
-        <v>0.0007621133079115938</v>
+        <v>0.002368542213662648</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2030496328396509</v>
+        <v>0.3153162724920335</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.415969585120848</v>
+        <v>1.244880574168548</v>
       </c>
       <c r="N24">
-        <v>0.3796093622612169</v>
+        <v>0.8712405253388198</v>
       </c>
       <c r="O24">
-        <v>1.67528935525246</v>
+        <v>1.495334239511806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.825436597298022</v>
+        <v>0.5752558107728873</v>
       </c>
       <c r="C25">
-        <v>0.4590139481557003</v>
+        <v>0.1604632000748722</v>
       </c>
       <c r="D25">
-        <v>0.04786742927819176</v>
+        <v>0.01622786619230965</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5425954107075128</v>
+        <v>0.4679375078602561</v>
       </c>
       <c r="G25">
-        <v>0.0007691673143775362</v>
+        <v>0.002372852066457381</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1872976616399527</v>
+        <v>0.3176667281389491</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.460113051893416</v>
+        <v>1.042200682754412</v>
       </c>
       <c r="N25">
-        <v>0.4349900835056779</v>
+        <v>0.8920980690611096</v>
       </c>
       <c r="O25">
-        <v>1.426884323548109</v>
+        <v>1.457186864561322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4849909108651786</v>
+        <v>1.540874247895943</v>
       </c>
       <c r="C2">
-        <v>0.1390367536166366</v>
+        <v>0.3939035719346293</v>
       </c>
       <c r="D2">
-        <v>0.01388781897824742</v>
+        <v>0.04078977178312471</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4548297057558699</v>
+        <v>0.4706003693833125</v>
       </c>
       <c r="G2">
-        <v>0.002376288671846065</v>
+        <v>0.0007745571531216492</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3201922625708562</v>
+        <v>0.1782014457121726</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8950069012951758</v>
+        <v>2.811660724302286</v>
       </c>
       <c r="N2">
-        <v>0.9088538593433313</v>
+        <v>0.4792280577974779</v>
       </c>
       <c r="O2">
-        <v>1.432740183228361</v>
+        <v>1.256955751905991</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4235675016159064</v>
+        <v>1.347500955603437</v>
       </c>
       <c r="C3">
-        <v>0.1243917632931186</v>
+        <v>0.3495454799544291</v>
       </c>
       <c r="D3">
-        <v>0.0122904808623332</v>
+        <v>0.03597044602089028</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.446652616678854</v>
+        <v>0.4239502183687804</v>
       </c>
       <c r="G3">
-        <v>0.002378783334122204</v>
+        <v>0.0007783469153518907</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3223965144529828</v>
+        <v>0.1733662639770799</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7963853923832573</v>
+        <v>2.395396566100288</v>
       </c>
       <c r="N3">
-        <v>0.9210814647999364</v>
+        <v>0.5112141898683937</v>
       </c>
       <c r="O3">
-        <v>1.418427280022513</v>
+        <v>1.1485070740965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3857360183631329</v>
+        <v>1.228481178065294</v>
       </c>
       <c r="C4">
-        <v>0.1153398086294999</v>
+        <v>0.3221948028528345</v>
       </c>
       <c r="D4">
-        <v>0.01130419820463402</v>
+        <v>0.03299994088976632</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.441978754326982</v>
+        <v>0.3962290798171964</v>
       </c>
       <c r="G4">
-        <v>0.002380397232916552</v>
+        <v>0.0007807455700818482</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.323991918952057</v>
+        <v>0.1709854094172663</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.73634678032316</v>
+        <v>2.148354851797251</v>
       </c>
       <c r="N4">
-        <v>0.9290192930965944</v>
+        <v>0.5317954438095605</v>
       </c>
       <c r="O4">
-        <v>1.410746336141926</v>
+        <v>1.084825814535094</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3702911067308605</v>
+        <v>1.179903310913517</v>
       </c>
       <c r="C5">
-        <v>0.1116362770502519</v>
+        <v>0.311020285574017</v>
       </c>
       <c r="D5">
-        <v>0.01090092363537565</v>
+        <v>0.03178654006271131</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.44016120513934</v>
+        <v>0.3851460922346632</v>
       </c>
       <c r="G5">
-        <v>0.002381075635677651</v>
+        <v>0.000781741624884338</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.324702764161767</v>
+        <v>0.1701537522493943</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7120042915382783</v>
+        <v>2.049468055614724</v>
       </c>
       <c r="N5">
-        <v>0.9323621219573575</v>
+        <v>0.540412444560328</v>
       </c>
       <c r="O5">
-        <v>1.407894133364493</v>
+        <v>1.059550805972862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3677248188329258</v>
+        <v>1.171832262060803</v>
       </c>
       <c r="C6">
-        <v>0.1110204232792711</v>
+        <v>0.309163015004529</v>
       </c>
       <c r="D6">
-        <v>0.01083387914005129</v>
+        <v>0.03158487997219339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4398646581627901</v>
+        <v>0.3833181590810284</v>
       </c>
       <c r="G6">
-        <v>0.002381189537442518</v>
+        <v>0.0007819081565750841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3248244616809615</v>
+        <v>0.1700237653610372</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7079695435168389</v>
+        <v>2.033146073771064</v>
       </c>
       <c r="N6">
-        <v>0.9329237241476882</v>
+        <v>0.5418569884539757</v>
       </c>
       <c r="O6">
-        <v>1.407437291461093</v>
+        <v>1.055393169689381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3855278357625025</v>
+        <v>1.227826354492578</v>
       </c>
       <c r="C7">
-        <v>0.1152899210241856</v>
+        <v>0.3220442166222028</v>
       </c>
       <c r="D7">
-        <v>0.01129876495581073</v>
+        <v>0.0329835883071965</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4419538898007644</v>
+        <v>0.3960787692267402</v>
       </c>
       <c r="G7">
-        <v>0.002380406298180452</v>
+        <v>0.0007807589273083283</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3240012600603563</v>
+        <v>0.1709736441835901</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7360179956710482</v>
+        <v>2.147014448281354</v>
       </c>
       <c r="N7">
-        <v>0.9290639380208496</v>
+        <v>0.5319107332772184</v>
       </c>
       <c r="O7">
-        <v>1.410706746131268</v>
+        <v>1.084482281729549</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4638371650086981</v>
+        <v>1.474256516941239</v>
       </c>
       <c r="C8">
-        <v>0.1339997442496212</v>
+        <v>0.3786327030804273</v>
       </c>
       <c r="D8">
-        <v>0.01333821764798415</v>
+        <v>0.03913042631192809</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4519381550351653</v>
+        <v>0.4543125703043174</v>
       </c>
       <c r="G8">
-        <v>0.002377131816653277</v>
+        <v>0.0007758493221804739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3209019774475657</v>
+        <v>0.1764064442950186</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8608916449777979</v>
+        <v>2.666122681514125</v>
       </c>
       <c r="N8">
-        <v>0.912980663935862</v>
+        <v>0.4900572355488997</v>
       </c>
       <c r="O8">
-        <v>1.427574929379489</v>
+        <v>1.218924868698878</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6164249692042176</v>
+        <v>1.955398178423593</v>
       </c>
       <c r="C9">
-        <v>0.1702043889849278</v>
+        <v>0.488687006656761</v>
       </c>
       <c r="D9">
-        <v>0.01729274212684118</v>
+        <v>0.05109451771360796</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4742780422288675</v>
+        <v>0.5767252232326712</v>
       </c>
       <c r="G9">
-        <v>0.00237135957428936</v>
+        <v>0.0007667629018053436</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3167510665232705</v>
+        <v>0.1921816931687701</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.11013826240783</v>
+        <v>3.771720444900794</v>
       </c>
       <c r="N9">
-        <v>0.8848548814462553</v>
+        <v>0.4157759958935046</v>
       </c>
       <c r="O9">
-        <v>1.469469044063914</v>
+        <v>1.508346697424315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7278843016820247</v>
+        <v>2.30781185983335</v>
       </c>
       <c r="C10">
-        <v>0.1964967278833001</v>
+        <v>0.5689494975401317</v>
       </c>
       <c r="D10">
-        <v>0.02016956157279282</v>
+        <v>0.05982939982958158</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4923881525519676</v>
+        <v>0.6730512479460913</v>
       </c>
       <c r="G10">
-        <v>0.002367510230535948</v>
+        <v>0.0007603723164858044</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.314885654073958</v>
+        <v>0.2075972208931489</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.296335015977732</v>
+        <v>4.672155383516838</v>
       </c>
       <c r="N10">
-        <v>0.8662734458529044</v>
+        <v>0.3664198296727648</v>
       </c>
       <c r="O10">
-        <v>1.505670680128276</v>
+        <v>1.740883004378134</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7784392349846598</v>
+        <v>2.467908808158256</v>
       </c>
       <c r="C11">
-        <v>0.2083887982885813</v>
+        <v>0.605310128354148</v>
       </c>
       <c r="D11">
-        <v>0.0214718494548265</v>
+        <v>0.06379006998043479</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5009985520055409</v>
+        <v>0.718609437032228</v>
       </c>
       <c r="G11">
-        <v>0.002365843198813322</v>
+        <v>0.0007575147975951653</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3142962896339832</v>
+        <v>0.2156209687305619</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.381800810346746</v>
+        <v>5.111560878573897</v>
       </c>
       <c r="N11">
-        <v>0.8582729303225918</v>
+        <v>0.3452079238632386</v>
       </c>
       <c r="O11">
-        <v>1.523327744402053</v>
+        <v>1.852054261206519</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7975606165870204</v>
+        <v>2.528497650656846</v>
       </c>
       <c r="C12">
-        <v>0.212881925682467</v>
+        <v>0.6190531970276538</v>
       </c>
       <c r="D12">
-        <v>0.02196404588302414</v>
+        <v>0.06528779209908464</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5043127836764256</v>
+        <v>0.7361446378465928</v>
       </c>
       <c r="G12">
-        <v>0.00236522395746524</v>
+        <v>0.0007564386039919033</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3141105561585285</v>
+        <v>0.2188222797653943</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.414281721414</v>
+        <v>5.283446471978266</v>
       </c>
       <c r="N12">
-        <v>0.8553084482594571</v>
+        <v>0.3373633310517015</v>
       </c>
       <c r="O12">
-        <v>1.530185701732194</v>
+        <v>1.895029249665328</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.793443514455987</v>
+        <v>2.515450513345286</v>
       </c>
       <c r="C13">
-        <v>0.2119147061217745</v>
+        <v>0.6160946227882107</v>
       </c>
       <c r="D13">
-        <v>0.02185808542375867</v>
+        <v>0.0649653295265864</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5035966154167539</v>
+        <v>0.73235493912685</v>
       </c>
       <c r="G13">
-        <v>0.002365356788201202</v>
+        <v>0.0007566701424612243</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3141488890428477</v>
+        <v>0.2181252685275474</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.407281064679594</v>
+        <v>5.246160465275949</v>
       </c>
       <c r="N13">
-        <v>0.8559440037040034</v>
+        <v>0.3390442952694457</v>
       </c>
       <c r="O13">
-        <v>1.528701074847987</v>
+        <v>1.885733038778994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7800128245672227</v>
+        <v>2.472894265031471</v>
       </c>
       <c r="C14">
-        <v>0.2087586555500138</v>
+        <v>0.6064413295173381</v>
       </c>
       <c r="D14">
-        <v>0.021512362011741</v>
+        <v>0.0639133324129304</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5012701394675219</v>
+        <v>0.7200461837788765</v>
       </c>
       <c r="G14">
-        <v>0.002365792012625151</v>
+        <v>0.0007574261485944044</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3142802577767725</v>
+        <v>0.2158809683495768</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.38447065139502</v>
+        <v>5.125583748939803</v>
       </c>
       <c r="N14">
-        <v>0.8580277344940086</v>
+        <v>0.3445587238965757</v>
       </c>
       <c r="O14">
-        <v>1.523888509521839</v>
+        <v>1.855571630399197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7717831470480405</v>
+        <v>2.446822359791895</v>
       </c>
       <c r="C15">
-        <v>0.2068241538308371</v>
+        <v>0.6005248753548358</v>
       </c>
       <c r="D15">
-        <v>0.02130047152762415</v>
+        <v>0.06326867104917966</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4998520987974047</v>
+        <v>0.7125446751919071</v>
       </c>
       <c r="G15">
-        <v>0.002366060165041674</v>
+        <v>0.0007578899493999524</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3143656065663478</v>
+        <v>0.2145280465836592</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.370514045698854</v>
+        <v>5.052484117128685</v>
       </c>
       <c r="N15">
-        <v>0.8593125660229646</v>
+        <v>0.3479612247078308</v>
       </c>
       <c r="O15">
-        <v>1.520963042876218</v>
+        <v>1.837214358733235</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7245773169998984</v>
+        <v>2.297344436183266</v>
       </c>
       <c r="C16">
-        <v>0.1957181502399408</v>
+        <v>0.5665698898307028</v>
       </c>
       <c r="D16">
-        <v>0.02008432259288639</v>
+        <v>0.05957028345213899</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4918329427316337</v>
+        <v>0.6701116462648713</v>
       </c>
       <c r="G16">
-        <v>0.002367620860976023</v>
+        <v>0.0007605599593590237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3149294011673689</v>
+        <v>0.2070946348588407</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.2907655935891</v>
+        <v>4.64413439282464</v>
       </c>
       <c r="N16">
-        <v>0.8668054079338106</v>
+        <v>0.3678318490298409</v>
       </c>
       <c r="O16">
-        <v>1.504540727416014</v>
+        <v>1.733734537809028</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6955790988325816</v>
+        <v>2.205586563608392</v>
       </c>
       <c r="C17">
-        <v>0.1888872333220775</v>
+        <v>0.545698497580446</v>
       </c>
       <c r="D17">
-        <v>0.0193365943545345</v>
+        <v>0.05729800770796345</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4870088503103744</v>
+        <v>0.6445480418704506</v>
       </c>
       <c r="G17">
-        <v>0.002368599783290924</v>
+        <v>0.0007622098170436396</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3153417846627384</v>
+        <v>0.2028051311110772</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.242043103577814</v>
+        <v>4.402014335205877</v>
       </c>
       <c r="N17">
-        <v>0.8715179332349905</v>
+        <v>0.3803462601973671</v>
       </c>
       <c r="O17">
-        <v>1.494771113534796</v>
+        <v>1.671701546125888</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6788861945111648</v>
+        <v>2.152789882289142</v>
       </c>
       <c r="C18">
-        <v>0.1849518459756894</v>
+        <v>0.5336799373174301</v>
       </c>
       <c r="D18">
-        <v>0.01890592118078871</v>
+        <v>0.05598986399572681</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4842691663727408</v>
+        <v>0.6300059916104885</v>
       </c>
       <c r="G18">
-        <v>0.002369170748556487</v>
+        <v>0.0007631635264655216</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3156033656411203</v>
+        <v>0.200431917471299</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.21409069316411</v>
+        <v>4.265468837755719</v>
       </c>
       <c r="N18">
-        <v>0.8742710166644763</v>
+        <v>0.3876603888195866</v>
       </c>
       <c r="O18">
-        <v>1.489263741626644</v>
+        <v>1.636522245238496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6732319175969792</v>
+        <v>2.134910483709547</v>
       </c>
       <c r="C19">
-        <v>0.1836182971152027</v>
+        <v>0.5296083709278605</v>
       </c>
       <c r="D19">
-        <v>0.01876000064437733</v>
+        <v>0.05554675004830045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4833475638403399</v>
+        <v>0.6251090921891915</v>
       </c>
       <c r="G19">
-        <v>0.002369365429076638</v>
+        <v>0.0007634872866915183</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3156961160975769</v>
+        <v>0.1996440390779917</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.204638552763598</v>
+        <v>4.219671737853346</v>
       </c>
       <c r="N19">
-        <v>0.8752104706749648</v>
+        <v>0.3901564923395355</v>
       </c>
       <c r="O19">
-        <v>1.48741823038992</v>
+        <v>1.624694207979502</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.698667456455496</v>
+        <v>2.215356435680519</v>
       </c>
       <c r="C20">
-        <v>0.189615063177115</v>
+        <v>0.5479217543025072</v>
       </c>
       <c r="D20">
-        <v>0.01941625360096566</v>
+        <v>0.05754001997438252</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.487518758961258</v>
+        <v>0.6472523942143908</v>
       </c>
       <c r="G20">
-        <v>0.002368494756774654</v>
+        <v>0.0007620337030117838</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.315295360345619</v>
+        <v>0.2032519092459886</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.247222247957168</v>
+        <v>4.427499689973587</v>
       </c>
       <c r="N20">
-        <v>0.8710118709820662</v>
+        <v>0.3790019881234699</v>
       </c>
       <c r="O20">
-        <v>1.49579952455997</v>
+        <v>1.678252577492628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7839583696763839</v>
+        <v>2.48539511983347</v>
       </c>
       <c r="C21">
-        <v>0.2096859417323458</v>
+        <v>0.6092774825899596</v>
       </c>
       <c r="D21">
-        <v>0.02161393544827206</v>
+        <v>0.0642223890301139</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5019520242153845</v>
+        <v>0.7236535868205323</v>
       </c>
       <c r="G21">
-        <v>0.00236566385071591</v>
+        <v>0.0007572039427584867</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3142406539593594</v>
+        <v>0.2165356003956731</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.391167394124111</v>
+        <v>5.160839598964444</v>
       </c>
       <c r="N21">
-        <v>0.8574139235291653</v>
+        <v>0.3429338267403352</v>
       </c>
       <c r="O21">
-        <v>1.525297413830856</v>
+        <v>1.864406085209794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.839568134043077</v>
+        <v>2.661662416019226</v>
       </c>
       <c r="C22">
-        <v>0.2227441691662477</v>
+        <v>0.6492223374295634</v>
       </c>
       <c r="D22">
-        <v>0.02304468501012025</v>
+        <v>0.06857725307668261</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5116978466661521</v>
+        <v>0.7752565191108687</v>
       </c>
       <c r="G22">
-        <v>0.002363883766685651</v>
+        <v>0.000754080936223449</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3137696860725221</v>
+        <v>0.2261768835113784</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.485928457245251</v>
+        <v>5.672978801832329</v>
       </c>
       <c r="N22">
-        <v>0.8489066139371459</v>
+        <v>0.3204608110210785</v>
       </c>
       <c r="O22">
-        <v>1.54557657672882</v>
+        <v>1.991237720646382</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8099007426288267</v>
+        <v>2.567608345822805</v>
       </c>
       <c r="C23">
-        <v>0.2157802679108443</v>
+        <v>0.6279191349015036</v>
       </c>
       <c r="D23">
-        <v>0.02228158680446768</v>
+        <v>0.06625423895161475</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5064676378249118</v>
+        <v>0.7475499675252877</v>
       </c>
       <c r="G23">
-        <v>0.002364827438759948</v>
+        <v>0.0007557451628651146</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3140010155811588</v>
+        <v>0.2209368394504132</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.435287690455937</v>
+        <v>5.396134608546575</v>
       </c>
       <c r="N23">
-        <v>0.8534123437238819</v>
+        <v>0.3323513147013841</v>
       </c>
       <c r="O23">
-        <v>1.534661430953605</v>
+        <v>1.923034592830362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6972712766619793</v>
+        <v>2.210939612816617</v>
       </c>
       <c r="C24">
-        <v>0.1892860368243987</v>
+        <v>0.5469166798274898</v>
       </c>
       <c r="D24">
-        <v>0.01938024212746825</v>
+        <v>0.05743061176301012</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4872881241455502</v>
+        <v>0.646029276782258</v>
       </c>
       <c r="G24">
-        <v>0.002368542213662648</v>
+        <v>0.0007621133079122923</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3153162724920335</v>
+        <v>0.2030496328396652</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.244880574168548</v>
+        <v>4.415969585120834</v>
       </c>
       <c r="N24">
-        <v>0.8712405253388198</v>
+        <v>0.3796093622612275</v>
       </c>
       <c r="O24">
-        <v>1.495334239511806</v>
+        <v>1.675289355252488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5752558107728873</v>
+        <v>1.82543659729788</v>
       </c>
       <c r="C25">
-        <v>0.1604632000748722</v>
+        <v>0.4590139481555298</v>
       </c>
       <c r="D25">
-        <v>0.01622786619230965</v>
+        <v>0.04786742927814913</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4679375078602561</v>
+        <v>0.5425954107075128</v>
       </c>
       <c r="G25">
-        <v>0.002372852066457381</v>
+        <v>0.0007691673144004826</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3176667281389491</v>
+        <v>0.1872976616399527</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.042200682754412</v>
+        <v>3.460113051893387</v>
       </c>
       <c r="N25">
-        <v>0.8920980690611096</v>
+        <v>0.4349900835056744</v>
       </c>
       <c r="O25">
-        <v>1.457186864561322</v>
+        <v>1.426884323548109</v>
       </c>
     </row>
   </sheetData>
